--- a/Pubmed/Nipah/Pubmed.xlsx
+++ b/Pubmed/Nipah/Pubmed.xlsx
@@ -1051,7 +1051,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>N, P, M, F, G, L</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>N, P, M, F, G, L</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>N, P, M, F, G, L</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>N, P, M, F, G, L</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>N, P, M, F, G, L</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1996,7 +1996,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>N, P, M, F, G, L</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -2124,7 +2124,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>N, P, M, F, G, L</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2654,7 +2654,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>N, M</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2790,7 +2790,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>N, P, F, G</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2926,7 +2926,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>N, P, M, F, G, L</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>N, P, M, F, G, L</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -3198,7 +3198,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>N, P, M, F, G, L</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -3606,7 +3606,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>N, M</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3743,7 +3743,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>N, P, M, F, G, L</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>N, G</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>N, P, M, F, G, L</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -4140,7 +4140,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>N, P, M, F, G, L</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -4276,7 +4276,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>N, P, M, F, G, L</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -4550,7 +4550,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>N, P, M, F, G</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>N, P, M, F, G, L</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="P32" t="inlineStr"/>
@@ -4810,7 +4810,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>N, P, M, F, G, L</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="P33" t="inlineStr"/>
@@ -4936,7 +4936,11 @@
           <t>cell culture supernatants</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr"/>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">

--- a/Pubmed/Nipah/Pubmed.xlsx
+++ b/Pubmed/Nipah/Pubmed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC34"/>
+  <dimension ref="A1:AD34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,12 +571,17 @@
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
+          <t>Specimen</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
           <t>MedianYear</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>RefID</t>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>LitID</t>
         </is>
       </c>
     </row>
@@ -618,7 +623,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Homo Sapiens, Bats, pigs,dog</t>
+          <t>Bat and Dog and Homo sapiens and Pig</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -696,18 +701,23 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Bat and Dog and Homo sapiens and Pig</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AB2" t="n">
+          <t>urine</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>urine</t>
+        </is>
+      </c>
+      <c r="AC2" t="n">
         <v>2010</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AD2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -749,7 +759,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Homo Sapiens</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -833,13 +843,18 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AB3" t="n">
+          <t>oropharyngeal swab</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>oropharyngeal swab</t>
+        </is>
+      </c>
+      <c r="AC3" t="n">
         <v>2023</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AD3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -881,7 +896,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Bats</t>
+          <t>Bat</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -963,18 +978,23 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Bat</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>spleen</t>
-        </is>
-      </c>
-      <c r="AB4" t="n">
+          <t>kidney and spleen</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>kidney and spleen</t>
+        </is>
+      </c>
+      <c r="AC4" t="n">
         <v>2023</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AD4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1016,7 +1036,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Homo Sapiens</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1104,13 +1124,18 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>blood</t>
-        </is>
-      </c>
-      <c r="AB5" t="n">
+          <t>blood and csf</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>blood and csf</t>
+        </is>
+      </c>
+      <c r="AC5" t="n">
         <v>2021</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AD5" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1152,7 +1177,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Homo Sapiens</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1239,13 +1264,18 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>blood</t>
-        </is>
-      </c>
-      <c r="AB6" t="n">
+          <t>blood and throat swab and urine</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>blood and throat swab and urine</t>
+        </is>
+      </c>
+      <c r="AC6" t="n">
         <v>2007</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AD6" t="n">
         <v>13</v>
       </c>
     </row>
@@ -1287,7 +1317,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Bats (Pteropus lylei)</t>
+          <t>Bat</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1369,18 +1399,23 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Bat</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AB7" t="n">
+          <t>urine</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>urine</t>
+        </is>
+      </c>
+      <c r="AC7" t="n">
         <v>2015</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AD7" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1422,7 +1457,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Bats (Pteropus medius)</t>
+          <t>Bat</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1501,18 +1536,23 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Bat</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>spleen</t>
-        </is>
-      </c>
-      <c r="AB8" t="n">
+          <t>kidney and liver and spleen</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>kidney and liver and spleen</t>
+        </is>
+      </c>
+      <c r="AC8" t="n">
         <v>2019</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AD8" t="n">
         <v>17</v>
       </c>
     </row>
@@ -1554,7 +1594,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Bats (Pteropus medius)</t>
+          <t>Bat</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1637,18 +1677,23 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Bat</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AB9" t="n">
+          <t>oropharyngeal swab and urine</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>oropharyngeal swab and urine</t>
+        </is>
+      </c>
+      <c r="AC9" t="n">
         <v>2009</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AD9" t="n">
         <v>18</v>
       </c>
     </row>
@@ -1690,7 +1735,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Bats (Pteropus medius), Homo Sapiens</t>
+          <t>Bat and Homo sapiens</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1772,18 +1817,23 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Bat and Homo sapiens</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AB10" t="n">
+          <t>throat swab and urine</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>throat swab and urine</t>
+        </is>
+      </c>
+      <c r="AC10" t="n">
         <v>2015</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AD10" t="n">
         <v>19</v>
       </c>
     </row>
@@ -1825,7 +1875,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Homo sapiens, bats (Pteropus medius)</t>
+          <t>Bat and Homo sapiens</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1912,18 +1962,23 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Bat and Homo sapiens</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>spleen</t>
-        </is>
-      </c>
-      <c r="AB11" t="n">
+          <t>liver and lung and spleen and throat swab</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>liver and lung and spleen and throat swab</t>
+        </is>
+      </c>
+      <c r="AC11" t="n">
         <v>2018</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AD11" t="n">
         <v>26</v>
       </c>
     </row>
@@ -1965,7 +2020,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Bats (Pteropus medius)</t>
+          <t>Bat</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -2044,18 +2099,23 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Bat</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AB12" t="n">
+          <t>throat swab and urine</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>throat swab and urine</t>
+        </is>
+      </c>
+      <c r="AC12" t="n">
         <v>2014</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AD12" t="n">
         <v>28</v>
       </c>
     </row>
@@ -2097,7 +2157,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Homo Sapiens</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -2176,13 +2236,18 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>blood</t>
-        </is>
-      </c>
-      <c r="AB13" t="n">
+          <t>blood and throat swab and urine</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>blood and throat swab and urine</t>
+        </is>
+      </c>
+      <c r="AC13" t="n">
         <v>2018</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AD13" t="n">
         <v>29</v>
       </c>
     </row>
@@ -2224,7 +2289,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Bats (Pteropus giganteus)</t>
+          <t>Bat</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -2303,18 +2368,23 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Bat</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>spleen</t>
-        </is>
-      </c>
-      <c r="AB14" t="n">
+          <t>liver and spleen</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>liver and spleen</t>
+        </is>
+      </c>
+      <c r="AC14" t="n">
         <v>2015</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AD14" t="n">
         <v>30</v>
       </c>
     </row>
@@ -2356,7 +2426,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Homo Sapiens</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -2443,10 +2513,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB15" t="n">
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC15" t="n">
         <v>2014</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AD15" t="n">
         <v>32</v>
       </c>
     </row>
@@ -2488,7 +2563,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>bats (Pteropus hypomelanus)</t>
+          <t>Bat</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -2568,18 +2643,23 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Bat</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AB16" t="n">
+          <t>urine</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>urine</t>
+        </is>
+      </c>
+      <c r="AC16" t="n">
         <v>2010</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AD16" t="n">
         <v>34</v>
       </c>
     </row>
@@ -2621,7 +2701,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>bats (Pteropus vampyrus)</t>
+          <t>Bat</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -2702,18 +2782,23 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Bat</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AB17" t="n">
+          <t>urine</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>urine</t>
+        </is>
+      </c>
+      <c r="AC17" t="n">
         <v>2009</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AD17" t="n">
         <v>36</v>
       </c>
     </row>
@@ -2755,7 +2840,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>bats (Pteropus giganteus)</t>
+          <t>Bat</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2837,18 +2922,23 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Bat</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AB18" t="n">
+          <t>kidney and liver</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>kidney and liver</t>
+        </is>
+      </c>
+      <c r="AC18" t="n">
         <v>2020</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AD18" t="n">
         <v>38</v>
       </c>
     </row>
@@ -2890,7 +2980,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Homo Sapiens</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2979,13 +3069,18 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AB19" t="n">
+          <t>csf and throat swab and urine</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>csf and throat swab and urine</t>
+        </is>
+      </c>
+      <c r="AC19" t="n">
         <v>2009</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AD19" t="n">
         <v>41</v>
       </c>
     </row>
@@ -3027,7 +3122,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Homo Sapiens</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -3115,13 +3210,18 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AB20" t="n">
+          <t>lung</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>lung</t>
+        </is>
+      </c>
+      <c r="AC20" t="n">
         <v>2007</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AD20" t="n">
         <v>42</v>
       </c>
     </row>
@@ -3163,7 +3263,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>bats (Pteropus vampyrus)</t>
+          <t>Bat</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -3246,18 +3346,23 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Bat</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AB21" t="n">
+          <t>urine</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>urine</t>
+        </is>
+      </c>
+      <c r="AC21" t="n">
         <v>2004</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AD21" t="n">
         <v>45</v>
       </c>
     </row>
@@ -3299,7 +3404,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>bats (Pteropus lylei)</t>
+          <t>Bat</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -3386,18 +3491,23 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Bat</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AB22" t="n">
+          <t>urine</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>urine</t>
+        </is>
+      </c>
+      <c r="AC22" t="n">
         <v>2006</v>
       </c>
-      <c r="AC22" t="n">
+      <c r="AD22" t="n">
         <v>49</v>
       </c>
     </row>
@@ -3439,7 +3549,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>bats (Pteropus lylei)</t>
+          <t>Bat</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -3522,18 +3632,23 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Bat</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AB23" t="n">
+          <t>urine</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>urine</t>
+        </is>
+      </c>
+      <c r="AC23" t="n">
         <v>2005</v>
       </c>
-      <c r="AC23" t="n">
+      <c r="AD23" t="n">
         <v>51</v>
       </c>
     </row>
@@ -3575,7 +3690,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Homo Sapiens</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -3658,13 +3773,18 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AB24" t="n">
+          <t>urine</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>urine</t>
+        </is>
+      </c>
+      <c r="AC24" t="n">
         <v>2001</v>
       </c>
-      <c r="AC24" t="n">
+      <c r="AD24" t="n">
         <v>52</v>
       </c>
     </row>
@@ -3706,7 +3826,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Homo Sapiens</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -3796,13 +3916,18 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AB25" t="n">
+          <t>csf and oropharyngeal swab and urine</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>csf and oropharyngeal swab and urine</t>
+        </is>
+      </c>
+      <c r="AC25" t="n">
         <v>2004</v>
       </c>
-      <c r="AC25" t="n">
+      <c r="AD25" t="n">
         <v>54</v>
       </c>
     </row>
@@ -3844,7 +3969,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>bats (Pteropus lylei)</t>
+          <t>Bat</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -3924,18 +4049,23 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Bat</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AB26" t="n">
+          <t>urine</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>urine</t>
+        </is>
+      </c>
+      <c r="AC26" t="n">
         <v>2004</v>
       </c>
-      <c r="AC26" t="n">
+      <c r="AD26" t="n">
         <v>55</v>
       </c>
     </row>
@@ -3977,7 +4107,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>pigs, Homo sapiens</t>
+          <t>Homo sapiens and Pig</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -4056,18 +4186,23 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Homo sapiens and Pig</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>blood</t>
-        </is>
-      </c>
-      <c r="AB27" t="n">
+          <t>blood and lung</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>blood and lung</t>
+        </is>
+      </c>
+      <c r="AC27" t="n">
         <v>1999</v>
       </c>
-      <c r="AC27" t="n">
+      <c r="AD27" t="n">
         <v>56</v>
       </c>
     </row>
@@ -4109,7 +4244,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Island flying foxes (Pteropus hypomelanus)</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -4193,13 +4328,18 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AB28" t="n">
+          <t>urine</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>urine</t>
+        </is>
+      </c>
+      <c r="AC28" t="n">
         <v>2000</v>
       </c>
-      <c r="AC28" t="n">
+      <c r="AD28" t="n">
         <v>59</v>
       </c>
     </row>
@@ -4241,7 +4381,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Homo Sapiens</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -4332,10 +4472,15 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB29" t="n">
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC29" t="n">
         <v>1998</v>
       </c>
-      <c r="AC29" t="n">
+      <c r="AD29" t="n">
         <v>61</v>
       </c>
     </row>
@@ -4377,7 +4522,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Homo Sapiens</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -4468,10 +4613,15 @@
           <t>brain</t>
         </is>
       </c>
-      <c r="AB30" t="n">
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>brain</t>
+        </is>
+      </c>
+      <c r="AC30" t="n">
         <v>1998</v>
       </c>
-      <c r="AC30" t="n">
+      <c r="AD30" t="n">
         <v>62</v>
       </c>
     </row>
@@ -4513,7 +4663,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Homo Sapiens</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -4606,10 +4756,15 @@
           <t>brain</t>
         </is>
       </c>
-      <c r="AB31" t="n">
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>brain</t>
+        </is>
+      </c>
+      <c r="AC31" t="n">
         <v>1998</v>
       </c>
-      <c r="AC31" t="n">
+      <c r="AD31" t="n">
         <v>68</v>
       </c>
     </row>
@@ -4651,7 +4806,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Cell Cultures</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4734,8 +4889,13 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB32" t="inlineStr"/>
-      <c r="AC32" t="n">
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="n">
         <v>70</v>
       </c>
     </row>
@@ -4777,7 +4937,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Homo sapiens, bats (Pteropus lylei)</t>
+          <t>Bat and Homo sapiens</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -4853,18 +5013,23 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Bat and Homo sapiens</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AB33" t="n">
+          <t>urine</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>urine</t>
+        </is>
+      </c>
+      <c r="AC33" t="n">
         <v>2003</v>
       </c>
-      <c r="AC33" t="n">
+      <c r="AD33" t="n">
         <v>72</v>
       </c>
     </row>
@@ -4906,7 +5071,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Homo Sapiens, Cell culture systems (Vero E6 cells and BHK-21 cells)</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4989,8 +5154,13 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB34" t="inlineStr"/>
-      <c r="AC34" t="n">
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="n">
         <v>73</v>
       </c>
     </row>
